--- a/src/test/resources/用户信息.xlsx
+++ b/src/test/resources/用户信息.xlsx
@@ -4,69 +4,139 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t>注意：所属区域和所属部门这两列的内容请根据系统左侧菜单树中已有的内容填写！并且插入数据时不要删除当前这一行的注意事项。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t>用户信息</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>姓名</t>
   </si>
   <si>
     <t>工号</t>
   </si>
   <si>
-    <t>姓名</t>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>籍贯</t>
   </si>
   <si>
     <t>电话</t>
   </si>
   <si>
-    <t>照片</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>所属区域</t>
-  </si>
-  <si>
-    <t>所属部门</t>
-  </si>
-  <si>
-    <t>1518xx11</t>
-  </si>
-  <si>
-    <t>test-11</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
-  </si>
-  <si>
-    <t>龙湖区</t>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>林冲</t>
+  </si>
+  <si>
+    <t>1518xx430</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>440505196801111033</t>
+  </si>
+  <si>
+    <t>广东省汕头市</t>
+  </si>
+  <si>
+    <t>18811888866</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>潮阳区</t>
+  </si>
+  <si>
+    <t>调度部</t>
+  </si>
+  <si>
+    <t>宋江</t>
+  </si>
+  <si>
+    <t>1518xx431</t>
+  </si>
+  <si>
+    <t>440505196801111034</t>
+  </si>
+  <si>
+    <t>18811888867</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>澄海区</t>
+  </si>
+  <si>
+    <t>变电所</t>
+  </si>
+  <si>
+    <t>鲁智深</t>
+  </si>
+  <si>
+    <t>1518xx432</t>
+  </si>
+  <si>
+    <t>440505196801111035</t>
+  </si>
+  <si>
+    <t>18811888868</t>
+  </si>
+  <si>
+    <t>备注3</t>
+  </si>
+  <si>
+    <t>金平区</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>武松</t>
+  </si>
+  <si>
+    <t>1518xx433</t>
+  </si>
+  <si>
+    <t>440505196801111036</t>
+  </si>
+  <si>
+    <t>18811888869</t>
+  </si>
+  <si>
+    <t>备注4</t>
+  </si>
+  <si>
+    <t>潮南区</t>
   </si>
   <si>
     <t>人事部</t>
-  </si>
-  <si>
-    <t>1518xx20</t>
-  </si>
-  <si>
-    <t>test-20</t>
-  </si>
-  <si>
-    <t>濠江区</t>
-  </si>
-  <si>
-    <t>财务部</t>
   </si>
 </sst>
 </file>
@@ -74,18 +144,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -115,6 +190,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,154 +619,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -747,89 +838,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2094230</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1487805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="photo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="1009650"/>
-          <a:ext cx="2056130" cy="1373505"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1460500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="Koala"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2066925" y="2695575"/>
-          <a:ext cx="1933575" cy="1450975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -839,39 +849,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,160 +960,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1115,126 +1096,202 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" customHeight="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="25" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="141" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="3" ht="26" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" ht="131" customHeight="1" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>